--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26971C36-C6B3-459D-A3D9-3CFE2A11B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93DBF62-C069-42DF-B905-1EC3BE42867D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id|String</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>MaxPlayerLevel</t>
+  </si>
+  <si>
+    <t>TimeSecToGetOneSpin</t>
   </si>
 </sst>
 </file>
@@ -406,9 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -431,6 +436,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93DBF62-C069-42DF-B905-1EC3BE42867D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA972E-5D37-4247-B6B7-05455671213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id|String</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>TimeSecToGetOneSpin</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine1</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine2</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -444,6 +453,30 @@
         <v>576</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA972E-5D37-4247-B6B7-05455671213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731345C-32CA-4487-81E9-8982E8F78A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id|String</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>SubLevelFightValueLine3</t>
+  </si>
+  <si>
+    <t>Bet3Diamonds</t>
+  </si>
+  <si>
+    <t>Bet3Spins</t>
+  </si>
+  <si>
+    <t>Bet3Tickets</t>
+  </si>
+  <si>
+    <t>Bet1Event</t>
+  </si>
+  <si>
+    <t>Bet2Events</t>
+  </si>
+  <si>
+    <t>Bet3Events</t>
+  </si>
+  <si>
+    <t>MaxStage</t>
   </si>
 </sst>
 </file>
@@ -418,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,34 +468,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>576</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731345C-32CA-4487-81E9-8982E8F78A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA656F-8600-4134-82EA-2F2CB08BAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id|String</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>MaxStage</t>
+  </si>
+  <si>
+    <t>GoldBoxTurnMin</t>
+  </si>
+  <si>
+    <t>GoldBoxTurnMax</t>
+  </si>
+  <si>
+    <t>FirstGoldBox</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -554,6 +563,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA656F-8600-4134-82EA-2F2CB08BAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B694B-5E51-432A-90BF-EDD6662777CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id|String</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
+  </si>
+  <si>
+    <t>FirstGoldBoxTurn</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -587,6 +590,14 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B694B-5E51-432A-90BF-EDD6662777CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C76B31-13C3-4087-A35A-AA3A0FBC55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id|String</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
-  </si>
-  <si>
-    <t>FirstGoldBoxTurn</t>
   </si>
 </sst>
 </file>
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,14 +587,6 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C76B31-13C3-4087-A35A-AA3A0FBC55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3759510-6153-4E27-BF2B-67192265574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3759510-6153-4E27-BF2B-67192265574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A8D05-DB01-4A60-BB11-0651DD0BD326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id|String</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
+  </si>
+  <si>
+    <t>MaxAnalysisLevel</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -587,6 +590,14 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A8D05-DB01-4A60-BB11-0651DD0BD326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2D66D-C1DC-4534-A18B-6F09F93EE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id|String</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>MaxAnalysisLevel</t>
+  </si>
+  <si>
+    <t>MaxGuideQuestId</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -598,6 +601,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2D66D-C1DC-4534-A18B-6F09F93EE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F88E5-BA9B-4761-8600-8152F2C6A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>MaxPlayerLevel</t>
   </si>
   <si>
-    <t>TimeSecToGetOneSpin</t>
-  </si>
-  <si>
     <t>SubLevelFightValueLine1</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>MaxGuideQuestId</t>
+  </si>
+  <si>
+    <t>TimeSecToGetOneEnergy</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>576</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2000</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>110</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>20</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F88E5-BA9B-4761-8600-8152F2C6A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB19556-FEEE-4588-81C8-072533A36B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -54,24 +54,6 @@
     <t>SubLevelFightValueLine3</t>
   </si>
   <si>
-    <t>Bet3Diamonds</t>
-  </si>
-  <si>
-    <t>Bet3Spins</t>
-  </si>
-  <si>
-    <t>Bet3Tickets</t>
-  </si>
-  <si>
-    <t>Bet1Event</t>
-  </si>
-  <si>
-    <t>Bet2Events</t>
-  </si>
-  <si>
-    <t>Bet3Events</t>
-  </si>
-  <si>
     <t>MaxStage</t>
   </si>
   <si>
@@ -91,6 +73,24 @@
   </si>
   <si>
     <t>TimeSecToGetOneEnergy</t>
+  </si>
+  <si>
+    <t>GachaEnergy</t>
+  </si>
+  <si>
+    <t>Gacha1Event</t>
+  </si>
+  <si>
+    <t>Gacha2Events</t>
+  </si>
+  <si>
+    <t>Gacha3Events</t>
+  </si>
+  <si>
+    <t>Gacha1BrokenEnergy</t>
+  </si>
+  <si>
+    <t>Gacha2BrokenEnergys</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>576</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -531,47 +531,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2000</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>110</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>20</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB19556-FEEE-4588-81C8-072533A36B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0816B-FE58-4AB1-8309-BEAD11FBBA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13515" windowHeight="14265" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0816B-FE58-4AB1-8309-BEAD11FBBA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87A628-C594-4928-BF47-403A191E23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13515" windowHeight="14265" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id|String</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Gacha2BrokenEnergys</t>
+  </si>
+  <si>
+    <t>MaxBrokenEnergy</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -609,6 +612,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87A628-C594-4928-BF47-403A191E23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0372758-2E27-425A-AE8F-D1F1C7B37480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-26850" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id|String</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>MaxBrokenEnergy</t>
+  </si>
+  <si>
+    <t>Gacha3BrokenEnergys</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -553,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,49 +577,57 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2000</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0372758-2E27-425A-AE8F-D1F1C7B37480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FAB55-B505-41D7-8B28-5969B9F573C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id|String</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Gacha3BrokenEnergys</t>
+  </si>
+  <si>
+    <t>MaxTotalSkillLevel</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,6 +634,14 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FAB55-B505-41D7-8B28-5969B9F573C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B32BD-2848-404C-8723-90319DD3C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="5445" yWindow="495" windowWidth="18915" windowHeight="14805" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalConstantStringTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id|String</t>
   </si>
@@ -100,6 +101,21 @@
   </si>
   <si>
     <t>MaxTotalSkillLevel</t>
+  </si>
+  <si>
+    <t>value|String</t>
+  </si>
+  <si>
+    <t>KoreaWon</t>
+  </si>
+  <si>
+    <t>￦</t>
+  </si>
+  <si>
+    <t>TotalSpellGachaStep</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
   </si>
 </sst>
 </file>
@@ -465,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -646,4 +662,46 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B32BD-2848-404C-8723-90319DD3C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216F7D9-C604-41C5-BE1B-A5A50E75C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="495" windowWidth="18915" windowHeight="14805" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Gacha3BrokenEnergys</t>
   </si>
   <si>
-    <t>MaxTotalSkillLevel</t>
-  </si>
-  <si>
     <t>value|String</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t>MaxTotalSpellLevel</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,10 +652,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -681,23 +681,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216F7D9-C604-41C5-BE1B-A5A50E75C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70FB77D-5B29-4DD5-9AB6-01AB0C4FF00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70FB77D-5B29-4DD5-9AB6-01AB0C4FF00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292685E0-79C5-4C03-9E97-F4517F21DA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id|String</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>MaxTotalSpellLevel</t>
+  </si>
+  <si>
+    <t>GachaActorCount</t>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMin</t>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMax</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,6 +665,30 @@
       </c>
       <c r="B21">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292685E0-79C5-4C03-9E97-F4517F21DA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFA581-1D43-43F2-8628-9FBCCF93AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>id|String</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>GachaActorPowerPointMax</t>
+  </si>
+  <si>
+    <t>GachaActorMaxTrp</t>
   </si>
 </sst>
 </file>
@@ -488,11 +491,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -672,7 +673,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -689,6 +690,14 @@
       </c>
       <c r="B24">
         <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFA581-1D43-43F2-8628-9FBCCF93AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A325B8-08D6-4D46-8766-E2E66722A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -493,7 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -585,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A325B8-08D6-4D46-8766-E2E66722A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D1B27-C683-47C8-8898-F6180CEE2644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -493,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -635,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D1B27-C683-47C8-8898-F6180CEE2644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883CA74-69D3-425D-B579-540BF072A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,99 +35,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>id|String</t>
   </si>
   <si>
+    <t>MaxPlayerLevel</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine1</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine2</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine3</t>
+  </si>
+  <si>
+    <t>MaxStage</t>
+  </si>
+  <si>
+    <t>GoldBoxTurnMin</t>
+  </si>
+  <si>
+    <t>GoldBoxTurnMax</t>
+  </si>
+  <si>
+    <t>FirstGoldBox</t>
+  </si>
+  <si>
+    <t>MaxAnalysisLevel</t>
+  </si>
+  <si>
+    <t>MaxGuideQuestId</t>
+  </si>
+  <si>
+    <t>TimeSecToGetOneEnergy</t>
+  </si>
+  <si>
+    <t>GachaEnergy</t>
+  </si>
+  <si>
+    <t>Gacha1Event</t>
+  </si>
+  <si>
+    <t>Gacha2Events</t>
+  </si>
+  <si>
+    <t>Gacha3Events</t>
+  </si>
+  <si>
+    <t>Gacha1BrokenEnergy</t>
+  </si>
+  <si>
+    <t>Gacha2BrokenEnergys</t>
+  </si>
+  <si>
+    <t>MaxBrokenEnergy</t>
+  </si>
+  <si>
+    <t>Gacha3BrokenEnergys</t>
+  </si>
+  <si>
+    <t>value|String</t>
+  </si>
+  <si>
+    <t>KoreaWon</t>
+  </si>
+  <si>
+    <t>￦</t>
+  </si>
+  <si>
+    <t>TotalSpellGachaStep</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t>MaxTotalSpellLevel</t>
+  </si>
+  <si>
+    <t>GachaActorCount</t>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMin</t>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMax</t>
+  </si>
+  <si>
+    <t>GachaActorMaxTrp</t>
+  </si>
+  <si>
+    <t>MaxActorLevel</t>
+  </si>
+  <si>
     <t>value|Int</t>
-  </si>
-  <si>
-    <t>MaxPlayerLevel</t>
-  </si>
-  <si>
-    <t>SubLevelFightValueLine1</t>
-  </si>
-  <si>
-    <t>SubLevelFightValueLine2</t>
-  </si>
-  <si>
-    <t>SubLevelFightValueLine3</t>
-  </si>
-  <si>
-    <t>MaxStage</t>
-  </si>
-  <si>
-    <t>GoldBoxTurnMin</t>
-  </si>
-  <si>
-    <t>GoldBoxTurnMax</t>
-  </si>
-  <si>
-    <t>FirstGoldBox</t>
-  </si>
-  <si>
-    <t>MaxAnalysisLevel</t>
-  </si>
-  <si>
-    <t>MaxGuideQuestId</t>
-  </si>
-  <si>
-    <t>TimeSecToGetOneEnergy</t>
-  </si>
-  <si>
-    <t>GachaEnergy</t>
-  </si>
-  <si>
-    <t>Gacha1Event</t>
-  </si>
-  <si>
-    <t>Gacha2Events</t>
-  </si>
-  <si>
-    <t>Gacha3Events</t>
-  </si>
-  <si>
-    <t>Gacha1BrokenEnergy</t>
-  </si>
-  <si>
-    <t>Gacha2BrokenEnergys</t>
-  </si>
-  <si>
-    <t>MaxBrokenEnergy</t>
-  </si>
-  <si>
-    <t>Gacha3BrokenEnergys</t>
-  </si>
-  <si>
-    <t>value|String</t>
-  </si>
-  <si>
-    <t>KoreaWon</t>
-  </si>
-  <si>
-    <t>￦</t>
-  </si>
-  <si>
-    <t>TotalSpellGachaStep</t>
-  </si>
-  <si>
-    <t>1, 3, 5</t>
-  </si>
-  <si>
-    <t>MaxTotalSpellLevel</t>
-  </si>
-  <si>
-    <t>GachaActorCount</t>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMin</t>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMax</t>
-  </si>
-  <si>
-    <t>GachaActorMaxTrp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,12 +509,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>600</v>
@@ -518,7 +522,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -526,177 +530,185 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>576</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>2000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
     </row>
@@ -723,23 +735,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883CA74-69D3-425D-B579-540BF072A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3941E10-70E7-4C28-8D50-4C015A12A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>TotalSpellGachaStep</t>
   </si>
   <si>
-    <t>1, 3, 5</t>
-  </si>
-  <si>
     <t>MaxTotalSpellLevel</t>
   </si>
   <si>
@@ -130,8 +127,10 @@
     <t>MaxActorLevel</t>
   </si>
   <si>
+    <t>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</t>
+  </si>
+  <si>
     <t>value|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,7 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -530,7 +531,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -674,15 +675,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -690,7 +691,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -698,7 +699,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -706,7 +707,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -751,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3941E10-70E7-4C28-8D50-4C015A12A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E1B54-4897-4DF9-A70D-9305D9956D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E1B54-4897-4DF9-A70D-9305D9956D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78DDA6-E439-4E02-B93C-60DA3BF0E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -496,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -542,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>576</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78DDA6-E439-4E02-B93C-60DA3BF0E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26198DB7-8C5D-4570-AECA-0A7E0E4B5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>id|String</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>value|Int</t>
+  </si>
+  <si>
+    <t>FastClearJumpStep</t>
+  </si>
+  <si>
+    <t>FastBossClearStartBase</t>
+  </si>
+  <si>
+    <t>FastBossClearEndBase</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,6 +718,30 @@
       </c>
       <c r="B26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26198DB7-8C5D-4570-AECA-0A7E0E4B5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BAB1A-F6D4-4CF8-97B0-F3F768C954BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>id|String</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>FastBossClearEndBase</t>
+  </si>
+  <si>
+    <t>PetDailySearchCount</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,7 +736,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,6 +745,14 @@
       </c>
       <c r="B29">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BAB1A-F6D4-4CF8-97B0-F3F768C954BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8413862-D6DE-4E6D-B397-0CF43423CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="7830" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -736,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +746,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8413862-D6DE-4E6D-B397-0CF43423CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251D074-ED36-4950-85D6-F2D0F1F2D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="7830" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>id|String</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>PetDailySearchCount</t>
+  </si>
+  <si>
+    <t>PetExtraChance</t>
+  </si>
+  <si>
+    <t>PetPassExtraChance</t>
   </si>
 </sst>
 </file>
@@ -506,11 +512,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -755,6 +759,22 @@
       </c>
       <c r="B30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251D074-ED36-4950-85D6-F2D0F1F2D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE098F6F-8CEC-4BC5-995B-50A9B7041BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>id|String</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>PetPassExtraChance</t>
+  </si>
+  <si>
+    <t>PetExtraGainMin</t>
+  </si>
+  <si>
+    <t>PetExtraGainMax</t>
   </si>
 </sst>
 </file>
@@ -512,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -775,6 +783,22 @@
       </c>
       <c r="B32">
         <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE098F6F-8CEC-4BC5-995B-50A9B7041BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF45B2-148F-4FAA-B640-942401A5E167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>id|String</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>PetExtraGainMax</t>
+  </si>
+  <si>
+    <t>PetHeartCount</t>
+  </si>
+  <si>
+    <t>PetPassHeartCount</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -798,6 +804,22 @@
         <v>39</v>
       </c>
       <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>3</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF45B2-148F-4FAA-B640-942401A5E167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6483BF-2FFE-4CEC-A88D-2E9804459332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="12885" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>id|String</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>PetPassHeartCount</t>
+  </si>
+  <si>
+    <t>MaxPetCountStep</t>
+  </si>
+  <si>
+    <t>PetSaleGivenTime</t>
+  </si>
+  <si>
+    <t>PetSaleCoolTime</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -769,58 +778,82 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>172800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6483BF-2FFE-4CEC-A88D-2E9804459332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2F1C19-B933-432E-8667-7E1AE780480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="12885" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2F1C19-B933-432E-8667-7E1AE780480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F43666-993F-448E-9E5D-D40066C987BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F43666-993F-448E-9E5D-D40066C987BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB43E5F-045D-4AF3-B4C3-8C5A9FF2E8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id|String</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>PetSaleCoolTime</t>
+  </si>
+  <si>
+    <t>DownloadEnergyReward</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,6 +857,14 @@
       </c>
       <c r="B39">
         <v>172800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB43E5F-045D-4AF3-B4C3-8C5A9FF2E8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC16549-7CF5-4A1C-88EC-DD090CDA6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>id|String</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>DownloadEnergyReward</t>
+  </si>
+  <si>
+    <t>FortuneWheelDailyCount</t>
+  </si>
+  <si>
+    <t>FortuneWheelGolden</t>
+  </si>
+  <si>
+    <t>MissionEnergyPet</t>
+  </si>
+  <si>
+    <t>MissionEnergyRoulette</t>
   </si>
 </sst>
 </file>
@@ -536,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,6 +877,38 @@
       </c>
       <c r="B40">
         <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC16549-7CF5-4A1C-88EC-DD090CDA6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053C869-B6E6-4316-9F3A-5EAF75B8DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>288</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053C869-B6E6-4316-9F3A-5EAF75B8DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416E069-9770-4B4A-81D7-14EAB22D2B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>id|String</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>MissionEnergyRoulette</t>
+  </si>
+  <si>
+    <t>DailyGemAmount</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -909,6 +912,14 @@
       </c>
       <c r="B44">
         <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416E069-9770-4B4A-81D7-14EAB22D2B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71E3FC-4D16-44A9-B351-C92ED55700F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>id|String</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>DailyGemAmount</t>
+  </si>
+  <si>
+    <t>AnalysisBoostRate</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,6 +923,14 @@
       </c>
       <c r="B45">
         <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71E3FC-4D16-44A9-B351-C92ED55700F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE90B4-FDDD-46B7-81DD-C3F5BEEC7B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE90B4-FDDD-46B7-81DD-C3F5BEEC7B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC57B68-3098-4A0A-AC0D-FC62335D93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>id|String</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>AnalysisBoostRate</t>
+  </si>
+  <si>
+    <t>Ev13CountLimit</t>
+  </si>
+  <si>
+    <t>Ev14CountLimit</t>
+  </si>
+  <si>
+    <t>Ev15CountLimit</t>
+  </si>
+  <si>
+    <t>Ev16CountLimit</t>
+  </si>
+  <si>
+    <t>Ev17CountLimit</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -931,6 +946,46 @@
       </c>
       <c r="B46">
         <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC57B68-3098-4A0A-AC0D-FC62335D93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB68060-ED70-474B-BDEE-79CA283400CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -953,7 +953,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -961,7 +961,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB68060-ED70-474B-BDEE-79CA283400CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5BBA4-9230-4EE2-8E33-3EAB07EB9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>id|String</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Ev17CountLimit</t>
+  </si>
+  <si>
+    <t>BoostEnergyDivide</t>
   </si>
 </sst>
 </file>
@@ -569,9 +572,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -986,6 +989,14 @@
       </c>
       <c r="B51">
         <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5BBA4-9230-4EE2-8E33-3EAB07EB9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EEF0F-DDD0-4BD2-B5EF-3CD9643699C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Gacha2BrokenEnergys</t>
   </si>
   <si>
-    <t>MaxBrokenEnergy</t>
-  </si>
-  <si>
     <t>Gacha3BrokenEnergys</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>BoostEnergyDivide</t>
+  </si>
+  <si>
+    <t>MaxBrokenGivenTime</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -745,15 +745,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>66</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>86400</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>172800</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>30</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>30</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>17</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1022,23 +1022,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EEF0F-DDD0-4BD2-B5EF-3CD9643699C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88764976-2C2F-46D0-A600-0693A403A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>id|String</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>MaxBrokenGivenTime</t>
+  </si>
+  <si>
+    <t>MaxBrokenStep</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,23 +756,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -777,225 +780,233 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>3</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88764976-2C2F-46D0-A600-0693A403A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEFD6DC-1EE3-467C-8810-67B67EDCDA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>id|String</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>MaxBrokenStep</t>
+  </si>
+  <si>
+    <t>AttendanceEarlyEnergy</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1011,14 @@
       </c>
       <c r="B53">
         <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEFD6DC-1EE3-467C-8810-67B67EDCDA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C530EF-2937-485D-9529-3B161121A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>id|String</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>AttendanceEarlyEnergy</t>
+  </si>
+  <si>
+    <t>MinimumStrikeDamageRate10000</t>
+  </si>
+  <si>
+    <t>MaximumStrikeDamageRate10000</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1019,6 +1025,22 @@
       </c>
       <c r="B54">
         <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>3330</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C530EF-2937-485D-9529-3B161121A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA4844-E8B0-4752-B456-EF3D9B3DD0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>id|String</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>MaximumStrikeDamageRate10000</t>
+  </si>
+  <si>
+    <t>PetPassGivenTime</t>
+  </si>
+  <si>
+    <t>PetExtraGain</t>
+  </si>
+  <si>
+    <t>PetPassExtraGain</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -853,193 +862,217 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>172800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>1200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
+      <c r="B59">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA4844-E8B0-4752-B456-EF3D9B3DD0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5566C4C-B7BC-404D-9F56-C1E6FDF3A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -985,7 +985,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5566C4C-B7BC-404D-9F56-C1E6FDF3A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A14C80D-0FFB-4810-9D85-09F55407E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>id|String</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>PetPassExtraGain</t>
+  </si>
+  <si>
+    <t>FastBossClearRateLimit10000</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -846,233 +849,241 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1209600</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A14C80D-0FFB-4810-9D85-09F55407E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092655AA-6A91-44D7-8E90-0EE98239963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>id|String</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>FastBossClearRateLimit10000</t>
+  </si>
+  <si>
+    <t>TeamPassGivenTime</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -865,225 +868,233 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>1209600</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>2419200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092655AA-6A91-44D7-8E90-0EE98239963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95B6A4-A7D7-4373-8F9E-FEBDB2EB675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>id|String</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>TeamPassGivenTime</t>
+  </si>
+  <si>
+    <t>MissionEnergyRushDefense</t>
+  </si>
+  <si>
+    <t>MissionEnergyBossDefense</t>
   </si>
 </sst>
 </file>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>30</v>
@@ -1020,81 +1026,97 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>1200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95B6A4-A7D7-4373-8F9E-FEBDB2EB675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627605A3-8CC8-472A-8326-1CC771A76AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>id|String</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>MissionEnergyBossDefense</t>
+  </si>
+  <si>
+    <t>MissionEnergyBossBattle</t>
+  </si>
+  <si>
+    <t>RushDefenseDailyCount</t>
+  </si>
+  <si>
+    <t>BossDefenseDailyCount</t>
+  </si>
+  <si>
+    <t>MaxRushDefense</t>
+  </si>
+  <si>
+    <t>MaxBossDefense</t>
   </si>
 </sst>
 </file>
@@ -605,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1049,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>30</v>
@@ -1042,81 +1057,121 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B62">
-        <v>1200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627605A3-8CC8-472A-8326-1CC771A76AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0CA880-B9AC-46A8-A172-8BAA6904A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>69</v>
       </c>
       <c r="B53">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0CA880-B9AC-46A8-A172-8BAA6904A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4DB498-795B-428E-B245-5EFDDA7252CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>id|String</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>MaxBossDefense</t>
+  </si>
+  <si>
+    <t>TimeSecToGetOneTicket</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -673,159 +676,159 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>259200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -833,191 +836,191 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>1209600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>2419200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>2419200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -1025,23 +1028,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -1049,15 +1052,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1073,15 +1076,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -1089,89 +1092,97 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>61</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4DB498-795B-428E-B245-5EFDDA7252CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655EB2F-F9DD-41A5-B72D-EBFBC7BFC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
         <v>56</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655EB2F-F9DD-41A5-B72D-EBFBC7BFC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B7515-3C0D-4B26-985B-E572C66716FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>id|String</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>TimeSecToGetOneTicket</t>
+  </si>
+  <si>
+    <t>MaxBossBattle</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1100,89 +1103,97 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B7515-3C0D-4B26-985B-E572C66716FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1A10D-EB0A-4B04-88CC-EA7FE69053F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>id|String</t>
   </si>
@@ -263,6 +263,27 @@
   </si>
   <si>
     <t>MaxBossBattle</t>
+  </si>
+  <si>
+    <t>MaxBossBattleXpLevel</t>
+  </si>
+  <si>
+    <t>BossBattleDailyCount</t>
+  </si>
+  <si>
+    <t>BossBattleDailyBonusTimes</t>
+  </si>
+  <si>
+    <t>BossBattleRegenDelay100</t>
+  </si>
+  <si>
+    <t>BossBattleRegenTickDelay100</t>
+  </si>
+  <si>
+    <t>BossBattleRegenHpRatio100</t>
+  </si>
+  <si>
+    <t>MaxBossBattleDifficulty</t>
   </si>
 </sst>
 </file>
@@ -626,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1103,7 +1124,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1111,89 +1132,145 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>1200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>61</v>
       </c>
-      <c r="B70">
+      <c r="B77">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1A10D-EB0A-4B04-88CC-EA7FE69053F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C17A5A-62B2-4BFA-BB55-58AD4212CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -935,7 +935,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C17A5A-62B2-4BFA-BB55-58AD4212CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE885F6A-220A-4CA9-94AB-2D109E9016FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE885F6A-220A-4CA9-94AB-2D109E9016FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FF5C8-4D94-4304-88B3-839F6254BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>id|String</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>MaxBossBattleDifficulty</t>
+  </si>
+  <si>
+    <t>BossBattleXpLevelBonus100</t>
+  </si>
+  <si>
+    <t>BossBattleRefreshPrice</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1180,98 +1186,114 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>61</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>3330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FF5C8-4D94-4304-88B3-839F6254BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D95485-4FAB-4989-9D20-226827D6D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D95485-4FAB-4989-9D20-226827D6D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C301F-2750-44C3-A2D8-F6AF572D884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>id|String</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>BossBattleRefreshPrice</t>
+  </si>
+  <si>
+    <t>OfficialCafe</t>
+  </si>
+  <si>
+    <t>OfficialTelegram</t>
+  </si>
+  <si>
+    <t>https://cafe.naver.com/powersourcestudio</t>
   </si>
 </sst>
 </file>
@@ -655,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1304,9 +1313,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1338,6 +1349,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C301F-2750-44C3-A2D8-F6AF572D884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1F823-7DE5-4C56-A431-1540F09785D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>id|String</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>https://cafe.naver.com/powersourcestudio</t>
+  </si>
+  <si>
+    <t>InvincibleTime10</t>
+  </si>
+  <si>
+    <t>TrapDamage10</t>
+  </si>
+  <si>
+    <t>MaxPointShopAttackLevel</t>
   </si>
 </sst>
 </file>
@@ -662,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,6 +1314,30 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1F823-7DE5-4C56-A431-1540F09785D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3EB18-A627-42C1-B5CE-F1CBFBCE3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>id|String</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>MaxPointShopAttackLevel</t>
+  </si>
+  <si>
+    <t>SummonWeightThreshold100</t>
   </si>
 </sst>
 </file>
@@ -671,11 +674,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -812,79 +813,79 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>2400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>259200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -892,215 +893,215 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>1209600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2419200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>2419200</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -1108,15 +1109,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1124,7 +1125,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1132,15 +1133,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -1148,31 +1149,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -1180,161 +1181,169 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78">
-        <v>3330</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>10000</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>10</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3EB18-A627-42C1-B5CE-F1CBFBCE3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DBACDB-D638-404F-846E-441820AA0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>id|String</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>SummonWeightThreshold100</t>
+  </si>
+  <si>
+    <t>MissionEnergyGoldDefense</t>
+  </si>
+  <si>
+    <t>GoldDefenseDailyCount</t>
+  </si>
+  <si>
+    <t>MaxGoldDefense</t>
   </si>
 </sst>
 </file>
@@ -674,9 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1117,15 +1128,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1133,7 +1144,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1141,209 +1152,233 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B64">
-        <v>300</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B65">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B78">
-        <v>1200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B79">
-        <v>3330</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>10000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <v>10</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DBACDB-D638-404F-846E-441820AA0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A03ED-E1F5-44AA-8163-96AFFA22E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>68</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>92</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A03ED-E1F5-44AA-8163-96AFFA22E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575A79EE-93A9-459C-ADB1-54068F5D8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1171,7 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
         <v>94</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575A79EE-93A9-459C-ADB1-54068F5D8300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC945A2-FEC1-4312-8AAB-FAFB6BD6E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>id|String</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>MaxGoldDefense</t>
+  </si>
+  <si>
+    <t>SubQuestGoldDoubleDiamond</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,6 +1383,14 @@
       </c>
       <c r="B86">
         <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC945A2-FEC1-4312-8AAB-FAFB6BD6E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CAB525-7E1A-4AB4-9472-F95DF7199F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CAB525-7E1A-4AB4-9472-F95DF7199F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA820CC-8E1D-4581-A2A9-73065181E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>id|String</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
+  </si>
+  <si>
+    <t>PetHeartAtk</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1075,55 +1078,55 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B48">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1139,15 +1142,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1155,7 +1158,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1163,7 +1166,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -1171,15 +1174,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>9</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -1195,31 +1198,31 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1227,159 +1230,159 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>3330</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>10000</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1387,9 +1390,17 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>5</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA820CC-8E1D-4581-A2A9-73065181E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC87988-B29F-445F-A030-C2BB3CA39F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1289,7 +1289,7 @@
         <v>50</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC87988-B29F-445F-A030-C2BB3CA39F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA307C7-36C8-4ACD-A8AB-90E4676CE6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA307C7-36C8-4ACD-A8AB-90E4676CE6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D1DF2-E258-4AFC-B8E5-0F790BF88E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28920" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>id|String</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
-  </si>
-  <si>
-    <t>PetHeartAtk</t>
   </si>
 </sst>
 </file>
@@ -689,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,55 +1075,55 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1134,7 +1131,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1142,15 +1139,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1166,7 +1163,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -1174,15 +1171,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>9</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -1198,31 +1195,31 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1230,159 +1227,159 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B82">
-        <v>1200</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>3330</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1390,17 +1387,9 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88">
         <v>5</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D1DF2-E258-4AFC-B8E5-0F790BF88E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D1261-83AF-461D-A0D4-36E61A18F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D1261-83AF-461D-A0D4-36E61A18F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6DD64-A8AE-4588-ABB1-F198C60D6882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>id|String</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>MaxTotalSpellLevel</t>
-  </si>
-  <si>
-    <t>GachaActorCount</t>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMin</t>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMax</t>
   </si>
   <si>
     <t>GachaActorMaxTrp</t>
@@ -686,11 +677,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -702,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +712,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -739,7 +728,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>960</v>
@@ -827,7 +816,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -875,7 +864,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>259200</v>
@@ -883,7 +872,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -902,127 +891,127 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>2419200</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>1209600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>2419200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,31 +1019,31 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>24</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1051,7 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <v>86400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>172800</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,60 +1075,60 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1147,66 +1136,66 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1203,7 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,36 +1211,36 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1259,10 +1248,10 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1259,7 @@
         <v>49</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1275,7 @@
         <v>51</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1283,7 @@
         <v>52</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,94 +1291,70 @@
         <v>53</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>30</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>1200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>3330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87">
         <v>5</v>
       </c>
     </row>
@@ -1434,23 +1399,23 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6DD64-A8AE-4588-ABB1-F198C60D6882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA27BC-0E27-4588-A2C2-620E79F4E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>id|String</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
+  </si>
+  <si>
+    <t>FastBossClearLowBase</t>
   </si>
 </sst>
 </file>
@@ -677,9 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -928,167 +933,167 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>1209600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>2419200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>2419200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>86400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -1096,7 +1101,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1104,15 +1109,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1120,7 +1125,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1128,7 +1133,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1136,15 +1141,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1152,7 +1157,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1160,31 +1165,31 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1192,159 +1197,159 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>3330</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <v>10000</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1352,9 +1357,17 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>92</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>5</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA27BC-0E27-4588-A2C2-620E79F4E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27510419-3843-4B26-A30B-1C21C3FB9273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27510419-3843-4B26-A30B-1C21C3FB9273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604290E-E367-458D-AAB3-01971BC1F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
         <v>74</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604290E-E367-458D-AAB3-01971BC1F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD28B2-818F-4736-957E-EE98BF66FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>id|String</t>
   </si>
@@ -317,6 +317,30 @@
   </si>
   <si>
     <t>FastBossClearLowBase</t>
+  </si>
+  <si>
+    <t>Pet1StarAttackRate100</t>
+  </si>
+  <si>
+    <t>Pet2StarAttackRate100</t>
+  </si>
+  <si>
+    <t>Pet3StarAttackRate100</t>
+  </si>
+  <si>
+    <t>Pet4StarAttackRate100</t>
+  </si>
+  <si>
+    <t>Pet5StarAttackRate100</t>
+  </si>
+  <si>
+    <t>PetDamageRandomMin100</t>
+  </si>
+  <si>
+    <t>PetDamageRandomMax100</t>
+  </si>
+  <si>
+    <t>PetStarDiff100</t>
   </si>
 </sst>
 </file>
@@ -680,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -976,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,207 +1077,207 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B61">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B65">
-        <v>300</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1261,55 +1285,55 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -1317,57 +1341,121 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B79">
-        <v>1200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>3330</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B81">
-        <v>10000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B85">
+      <c r="B93">
         <v>5</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD28B2-818F-4736-957E-EE98BF66FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB403DA5-CBE2-475D-A1C7-D4395C34E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1136,7 +1136,7 @@
         <v>101</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB403DA5-CBE2-475D-A1C7-D4395C34E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D18B9A-5193-44BA-95C4-85BF3894D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D18B9A-5193-44BA-95C4-85BF3894D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706674C-AE11-4F8E-8CDA-2F26B538C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>id|String</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>PetStarDiff100</t>
+  </si>
+  <si>
+    <t>SpellGachaLevelAccumulatedCount</t>
+  </si>
+  <si>
+    <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1467,11 +1473,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1505,17 +1509,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706674C-AE11-4F8E-8CDA-2F26B538C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B1DDA-35A3-4702-88D8-A7882902D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>id|String</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
+  </si>
+  <si>
+    <t>RepeatDamageMinValue10000</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1468,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1475,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B1DDA-35A3-4702-88D8-A7882902D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679FA50-EC9F-4C2B-AF80-A8AF928847AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1473,7 +1473,7 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>450</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679FA50-EC9F-4C2B-AF80-A8AF928847AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BDB4F-EA56-47FA-AF1B-635BD5762C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1473,7 +1473,7 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>1300</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BDB4F-EA56-47FA-AF1B-635BD5762C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8171E5D-8FB4-455F-B007-927FD69269CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8171E5D-8FB4-455F-B007-927FD69269CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB1527-C2AF-4E0A-8873-BDBD9A0575CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1457,7 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB1527-C2AF-4E0A-8873-BDBD9A0575CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB970C40-912C-4B1D-B05D-E466CCE86F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -889,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB970C40-912C-4B1D-B05D-E466CCE86F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58883328-B873-4BA6-A9EB-828F4B6E6E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1249,7 +1249,7 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>91</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58883328-B873-4BA6-A9EB-828F4B6E6E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353062B-A66F-4FC8-97E3-A911FADF6636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353062B-A66F-4FC8-97E3-A911FADF6636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93087A31-9571-45A6-A322-3BD37C7DECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>id|String</t>
   </si>
@@ -350,6 +350,24 @@
   </si>
   <si>
     <t>RepeatDamageMinValue10000</t>
+  </si>
+  <si>
+    <t>GoldRewardIconLargeBase</t>
+  </si>
+  <si>
+    <t>GoldRewardIconMediumBase</t>
+  </si>
+  <si>
+    <t>DiaRewardIconLargeBase</t>
+  </si>
+  <si>
+    <t>DiaRewardIconMediumBase</t>
+  </si>
+  <si>
+    <t>EnergyRewardIconLargeBase</t>
+  </si>
+  <si>
+    <t>EnergyRewardIconMediumBase</t>
   </si>
 </sst>
 </file>
@@ -713,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1474,6 +1492,54 @@
       </c>
       <c r="B94">
         <v>1750</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93087A31-9571-45A6-A322-3BD37C7DECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06191666-683B-4DD9-833A-12E0CAC5C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>2400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1507,7 +1507,7 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>1050000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06191666-683B-4DD9-833A-12E0CAC5C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D62DF2-AE42-4987-98E4-BADCEB66E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1323,7 +1323,7 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D62DF2-AE42-4987-98E4-BADCEB66E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CF9A1-6619-4A82-9054-C9E4C29E42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>210</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>101</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CF9A1-6619-4A82-9054-C9E4C29E42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5723C451-BD4B-4B0E-9FD8-54763DBA07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1075,7 @@
         <v>36</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5723C451-BD4B-4B0E-9FD8-54763DBA07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73259DE-E18C-4B0C-9591-962D749C57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
         <v>48</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>49</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>50</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1403,7 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73259DE-E18C-4B0C-9591-962D749C57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDCFBF-6190-45ED-9E76-9AF96393B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>id|String</t>
   </si>
@@ -289,9 +289,6 @@
     <t>OfficialTelegram</t>
   </si>
   <si>
-    <t>https://cafe.naver.com/powersourcestudio</t>
-  </si>
-  <si>
     <t>InvincibleTime10</t>
   </si>
   <si>
@@ -368,6 +365,12 @@
   </si>
   <si>
     <t>EnergyRewardIconMediumBase</t>
+  </si>
+  <si>
+    <t>https://https://cafe.naver.com/daughteridle</t>
+  </si>
+  <si>
+    <t>https://discord.gg/GJ6TvcFB</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +875,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>140</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>120</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>110</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1456,7 +1459,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>300</v>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -1488,7 +1491,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>1750</v>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>250000</v>
@@ -1504,7 +1507,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>105000</v>
@@ -1512,7 +1515,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>160</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>55</v>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>520</v>
@@ -1536,7 +1539,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>180</v>
@@ -1552,7 +1555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1586,10 +1591,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1602,7 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1610,7 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDCFBF-6190-45ED-9E76-9AF96393B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B8A7D-683B-45AF-A7DB-CC5A1C755D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>49</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B8A7D-683B-45AF-A7DB-CC5A1C755D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FFD72-6EE1-4D59-8069-DF69DF5C710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
     <t>EnergyRewardIconMediumBase</t>
   </si>
   <si>
-    <t>https://https://cafe.naver.com/daughteridle</t>
-  </si>
-  <si>
     <t>https://discord.gg/GJ6TvcFB</t>
+  </si>
+  <si>
+    <t>https://cafe.naver.com/daughteridle</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1555,9 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1602,7 +1600,7 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1610,7 +1608,7 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FFD72-6EE1-4D59-8069-DF69DF5C710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2E122-3DB2-484E-8316-20F94A1A1C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>id|String</t>
   </si>
@@ -103,9 +103,6 @@
     <t>￦</t>
   </si>
   <si>
-    <t>TotalSpellGachaStep</t>
-  </si>
-  <si>
     <t>MaxTotalSpellLevel</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>MaxActorLevel</t>
   </si>
   <si>
-    <t>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</t>
-  </si>
-  <si>
     <t>value|Int</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>SpellGachaLevelAccumulatedCount</t>
   </si>
   <si>
-    <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
-  </si>
-  <si>
     <t>RepeatDamageMinValue10000</t>
   </si>
   <si>
@@ -371,6 +362,9 @@
   </si>
   <si>
     <t>https://cafe.naver.com/daughteridle</t>
+  </si>
+  <si>
+    <t>0, 25, 100, 400, 1600, 4200, 8500, 13500, 19000, 25500, 33000, 41500, 50500, 60000</t>
   </si>
 </sst>
 </file>
@@ -750,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +765,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -787,7 +781,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>960</v>
@@ -875,7 +869,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -923,7 +917,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>259200</v>
@@ -931,7 +925,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -939,7 +933,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -947,7 +941,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -955,7 +949,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -963,7 +957,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -979,7 +973,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -987,7 +981,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -995,7 +989,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -1003,7 +997,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33">
         <v>1209600</v>
@@ -1011,7 +1005,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1019,7 +1013,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>2419200</v>
@@ -1027,7 +1021,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>25</v>
@@ -1035,7 +1029,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>95</v>
@@ -1043,7 +1037,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1051,7 +1045,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>60</v>
@@ -1059,7 +1053,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1067,7 +1061,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1075,7 +1069,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1083,7 +1077,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1091,7 +1085,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>86400</v>
@@ -1099,7 +1093,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>172800</v>
@@ -1107,7 +1101,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>140</v>
@@ -1115,7 +1109,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1123,7 +1117,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <v>120</v>
@@ -1131,7 +1125,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49">
         <v>110</v>
@@ -1139,7 +1133,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -1147,7 +1141,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -1155,7 +1149,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1163,7 +1157,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1171,7 +1165,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>200</v>
@@ -1179,7 +1173,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1187,7 +1181,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1195,7 +1189,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1203,7 +1197,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1219,7 +1213,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -1227,7 +1221,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -1235,7 +1229,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1259,7 +1253,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1275,7 +1269,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1283,7 +1277,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1291,7 +1285,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>50</v>
@@ -1299,7 +1293,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>15</v>
@@ -1307,7 +1301,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1323,7 +1317,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>500</v>
@@ -1331,7 +1325,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>120</v>
@@ -1339,7 +1333,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -1355,7 +1349,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>28</v>
@@ -1363,7 +1357,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -1371,7 +1365,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <v>15</v>
@@ -1387,7 +1381,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <v>19</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -1411,7 +1405,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84">
         <v>12</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -1427,7 +1421,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B86">
         <v>30</v>
@@ -1435,7 +1429,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B87">
         <v>1200</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>3330</v>
@@ -1451,7 +1445,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89">
         <v>10000</v>
@@ -1459,7 +1453,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -1467,7 +1461,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -1475,7 +1469,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>300</v>
@@ -1483,7 +1477,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>1750</v>
@@ -1499,7 +1493,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>250000</v>
@@ -1507,7 +1501,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>105000</v>
@@ -1515,7 +1509,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>160</v>
@@ -1523,7 +1517,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>55</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>520</v>
@@ -1539,7 +1533,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>180</v>
@@ -1553,9 +1547,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1581,34 +1577,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2E122-3DB2-484E-8316-20F94A1A1C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A1951-DB2A-4B73-ACBD-B5560FA814BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1264,7 +1264,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>88</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED29560-8EF7-45A2-9D29-FD68F5C70330}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A1951-DB2A-4B73-ACBD-B5560FA814BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E62CB-1496-41D2-A9F4-5FE184E1B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E62CB-1496-41D2-A9F4-5FE184E1B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875458B-AA95-4978-8AF4-80806FFCA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>id|String</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>0, 25, 100, 400, 1600, 4200, 8500, 13500, 19000, 25500, 33000, 41500, 50500, 60000</t>
+  </si>
+  <si>
+    <t>PetBattle01Time10</t>
+  </si>
+  <si>
+    <t>PetBattle02Time10</t>
+  </si>
+  <si>
+    <t>PetBattle03Time10</t>
   </si>
 </sst>
 </file>
@@ -728,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1165,95 +1174,95 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B54">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55">
         <v>40</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1261,143 +1270,143 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -1405,137 +1414,161 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B86">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B87">
-        <v>1200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B88">
-        <v>3330</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B89">
-        <v>10000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B92">
-        <v>300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B94">
-        <v>1750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B95">
-        <v>250000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B96">
-        <v>105000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>160</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>55</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>520</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B100">
+      <c r="B103">
         <v>180</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875458B-AA95-4978-8AF4-80806FFCA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BA2E5-A0B7-45C7-B14C-AE04535E5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>id|String</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>PetBattle03Time10</t>
+  </si>
+  <si>
+    <t>RobotDefenseOn</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1570,6 +1573,14 @@
       </c>
       <c r="B103">
         <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BA2E5-A0B7-45C7-B14C-AE04535E5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762A3A7-2151-4148-A15F-4AE5D6901492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>id|String</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>RobotDefenseOn</t>
+  </si>
+  <si>
+    <t>RobotDefenseDailyCount</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1580,6 +1583,14 @@
         <v>113</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105">
         <v>1</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762A3A7-2151-4148-A15F-4AE5D6901492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57FEA1-3926-4225-A25C-78AF27518F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>id|String</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>RobotDefenseDailyCount</t>
+  </si>
+  <si>
+    <t>EventpointEnergy10</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1592,6 +1595,14 @@
       </c>
       <c r="B105">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57FEA1-3926-4225-A25C-78AF27518F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC4AA4-D480-436C-A2EF-3B9982E86C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
         <v>84</v>
       </c>
       <c r="B95">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC4AA4-D480-436C-A2EF-3B9982E86C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4E937-38D4-4F5C-8B5D-7A8107E49094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1522,7 +1522,7 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4E937-38D4-4F5C-8B5D-7A8107E49094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06803C-AC7D-4C66-97A8-28E871B349E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>id|String</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>EventpointEnergy10</t>
+  </si>
+  <si>
+    <t>RobotDefenseStageId</t>
   </si>
 </sst>
 </file>
@@ -746,11 +749,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1603,6 +1604,14 @@
       </c>
       <c r="B106">
         <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107">
+        <v>90100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06803C-AC7D-4C66-97A8-28E871B349E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14951696-645D-45F4-A148-F2E941A1132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>id|String</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>RobotDefenseStageId</t>
+  </si>
+  <si>
+    <t>MaxRobotDefense</t>
+  </si>
+  <si>
+    <t>RobotDefenseTimeSec</t>
+  </si>
+  <si>
+    <t>RobotDefenseStandardHpMin</t>
+  </si>
+  <si>
+    <t>RobotDefenseStandardHpMax</t>
+  </si>
+  <si>
+    <t>RobotDefenseCountUpRequired</t>
+  </si>
+  <si>
+    <t>MaxDroneAtkLevel</t>
   </si>
 </sst>
 </file>
@@ -749,9 +767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1612,6 +1632,54 @@
       </c>
       <c r="B107">
         <v>90100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14951696-645D-45F4-A148-F2E941A1132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B106E8F-6AFB-4BE8-8A77-82647576F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>id|String</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>MaxDroneAtkLevel</t>
+  </si>
+  <si>
+    <t>RobotDefenseMoveSpeedRate100</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1680,6 +1683,14 @@
       </c>
       <c r="B113">
         <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B106E8F-6AFB-4BE8-8A77-82647576F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29A081-984F-4A27-8C1D-9F95DDC34A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1690,7 +1690,7 @@
         <v>123</v>
       </c>
       <c r="B114">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29A081-984F-4A27-8C1D-9F95DDC34A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B818F6F-CCCF-4605-B946-39605134344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1666,7 +1666,7 @@
         <v>120</v>
       </c>
       <c r="B111">
-        <v>5000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B818F6F-CCCF-4605-B946-39605134344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4AC48-296D-4EC4-B730-25116A14B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4AC48-296D-4EC4-B730-25116A14B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087B0C9-66E0-4DF2-94E6-CBC1EB77AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087B0C9-66E0-4DF2-94E6-CBC1EB77AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B385C-D5ED-41AB-BA9F-94FDDC0CF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>id|String</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>RobotDefenseMoveSpeedRate100</t>
+  </si>
+  <si>
+    <t>RobotDefenseCoolSec</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5000017-DE11-4746-A50F-C02BCCA15C78}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1618,7 +1621,7 @@
         <v>114</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1691,6 +1694,14 @@
       </c>
       <c r="B114">
         <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B385C-D5ED-41AB-BA9F-94FDDC0CF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8B2AA-28CF-4D1F-92DF-28529EBA4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{385C27BB-68F4-4CA4-9DDE-8BDC8C2EA378}"/>
   </bookViews>
@@ -1645,7 +1645,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
